--- a/src/Graficas.xlsx
+++ b/src/Graficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Documents\Portfolio\CriptoSimulacion\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7141D3-4FAC-4922-B20F-77BA19816398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F9712-687E-41FF-9B93-8C1BDE6DE136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2700" windowWidth="17670" windowHeight="13080" xr2:uid="{0790706D-DB61-4DC9-8B2F-3B40A4C0AF46}"/>
+    <workbookView xWindow="13275" yWindow="3930" windowWidth="17670" windowHeight="13080" xr2:uid="{2571B443-E666-4FF2-81F5-7DDD7C7E57A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,22 @@
     <t>Precio mercado en pesos</t>
   </si>
   <si>
+    <t>NVIDIA GTX 1050ti</t>
+  </si>
+  <si>
     <t>AMD RX 580</t>
   </si>
   <si>
     <t>AMD RX 5600 XT</t>
   </si>
   <si>
+    <t>NVIDIA RTX 2060</t>
+  </si>
+  <si>
     <t>AMD RX 5700</t>
   </si>
   <si>
-    <t>NVIDIA GTX 1050ti</t>
-  </si>
-  <si>
     <t xml:space="preserve">NVIDIA RTX 3080 </t>
-  </si>
-  <si>
-    <t>NVIDIA RTX 2060</t>
   </si>
 </sst>
 </file>
@@ -92,12 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,80 +410,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC45A711-35AD-458B-867B-FEE452460D42}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE3723-EFE3-491F-A3E9-9DA4AC2510DF}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2770</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>4559</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5555</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>6949</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>6969</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>13919</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
